--- a/Surprise_task_pilots_development.xlsx
+++ b/Surprise_task_pilots_development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marjan/Desktop/Marjans_laptop_AIMLAB_2ndtry/surprise_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucjuagd_ucl_ac_uk/Documents/Desktop/GitHub/aim_lab_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F71A8E-03F1-7F4D-9418-B880EBAFD1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7F71A8E-03F1-7F4D-9418-B880EBAFD1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52199308-B6E5-D042-BAD7-E9F4FB3E8317}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="1000" windowWidth="18040" windowHeight="16680" xr2:uid="{2FC442F0-FC41-6843-8B6A-D7D8CABD18CE}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2FC442F0-FC41-6843-8B6A-D7D8CABD18CE}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_all_surprise_pilots" sheetId="3" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,35 +1293,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,9 +1342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1391,7 +1382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1497,7 +1488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1639,7 +1630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,23 +1638,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF7CBD-AB01-994B-982F-4101D61BDA30}">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="24" width="21.5" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="21.5" style="7" customWidth="1"/>
-    <col min="26" max="26" width="22" style="7" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="23.5" style="7" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="25" width="21.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" style="1" customWidth="1"/>
     <col min="30" max="30" width="16.83203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="39.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="38.6640625" style="1" customWidth="1"/>
@@ -1679,142 +1669,142 @@
     <col min="42" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="13" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:41" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:41" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1829,111 +1819,111 @@
       <c r="K2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="P2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" s="7" t="s">
+      <c r="V2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="7" customFormat="1" ht="43" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:41" ht="43" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1945,108 +1935,108 @@
       <c r="K3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="L3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="7" t="s">
+      <c r="P3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" s="7" t="s">
+      <c r="V3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:41" ht="22" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2061,225 +2051,225 @@
       <c r="K4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="7" t="s">
+      <c r="P4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL4" s="7" t="s">
+      <c r="V4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="13"/>
+      <c r="AN4" s="10"/>
     </row>
-    <row r="5" spans="1:41" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:41" ht="22" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="7" t="s">
+      <c r="V5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL5" s="7" t="s">
+      <c r="X5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="7" customFormat="1" ht="29" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:41" ht="29" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2294,1159 +2284,1159 @@
       <c r="K6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL6" s="7" t="s">
+      <c r="V6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="7" customFormat="1" ht="34" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:41" ht="34" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="7" t="s">
+      <c r="V7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AA7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="1">
         <v>0.76</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="1">
         <v>0.63</v>
       </c>
-      <c r="AE7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AI7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AI7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="7" customFormat="1" ht="19" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:41" ht="19" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="1">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="4" t="s">
         <v>249</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="7" t="s">
+      <c r="V8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AA8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="1">
         <v>0.71</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="1">
         <v>0.73</v>
       </c>
-      <c r="AE8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AE8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="7" customFormat="1" ht="44" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:41" ht="44" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="1">
         <v>41</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="1" t="s">
         <v>248</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" s="7" t="s">
+      <c r="V9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Z9" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AA9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="1">
         <v>0.59</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AE9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AJ9" s="7" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK9" s="7" t="s">
+      <c r="AK9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL9" s="7" t="s">
+      <c r="AL9" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="7" customFormat="1" ht="31" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:41" ht="31" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="1" t="s">
         <v>250</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" s="7" t="s">
+      <c r="W10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AA10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="1">
         <v>0.43</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="1">
         <v>0.53</v>
       </c>
-      <c r="AE10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AE10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AK10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:41" s="7" customFormat="1" ht="34" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:41" ht="34" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="1">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>252</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" s="7" t="s">
+      <c r="V11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AE11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AI11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AI11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AO11" s="16"/>
+      <c r="AO11" s="13"/>
     </row>
-    <row r="12" spans="1:41" s="7" customFormat="1" ht="36" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:41" ht="36" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="1">
         <v>28</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y12" s="7" t="s">
+      <c r="V12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="Z12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AA12" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB12" s="7" t="s">
+      <c r="AB12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AC12" s="7" t="s">
+      <c r="AC12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AD12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL12" s="7" t="s">
+      <c r="AE12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AO12" s="16"/>
+      <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:41" s="7" customFormat="1" ht="40" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:41" ht="40" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="1" t="s">
         <v>253</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="W13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y13" s="7" t="s">
+      <c r="W13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="1">
         <v>0.23</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AA13" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="1">
         <v>0.53</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="1">
         <v>0.59</v>
       </c>
-      <c r="AE13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK13" s="7" t="s">
+      <c r="AE13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AL13" s="7" t="s">
+      <c r="AL13" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AO13" s="16"/>
+      <c r="AO13" s="13"/>
     </row>
-    <row r="14" spans="1:41" s="7" customFormat="1" ht="36" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:41" ht="36" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <v>29</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="1" t="s">
         <v>254</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="7" t="s">
+      <c r="V14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="X14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" s="7" t="s">
+      <c r="X14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="1">
         <v>0.22</v>
       </c>
-      <c r="AA14" s="7" t="s">
+      <c r="AA14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="1">
         <v>0.44</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="1">
         <v>0.71</v>
       </c>
-      <c r="AE14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI14" s="7" t="s">
+      <c r="AE14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AJ14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK14" s="7" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AL14" s="7" t="s">
+      <c r="AL14" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AO14" s="17"/>
+      <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" s="7" customFormat="1" ht="37" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:41" ht="37" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <v>41</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="U15" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" s="7" t="s">
+      <c r="V15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="1">
         <v>0.15</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AA15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="1">
         <v>-0.03</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="1">
         <v>0.62</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="1">
         <v>0.74</v>
       </c>
-      <c r="AE15" s="7" t="s">
+      <c r="AE15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AF15" s="7" t="s">
+      <c r="AF15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AG15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI15" s="7" t="s">
+      <c r="AG15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL15" s="7" t="s">
+      <c r="AJ15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="7" customFormat="1" ht="31" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:41" ht="31" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="3" t="s">
         <v>112</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3458,111 +3448,111 @@
       <c r="J16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16" s="7" t="s">
+      <c r="V16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Y16" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="1">
         <v>0.25</v>
       </c>
-      <c r="AA16" s="7" t="s">
+      <c r="AA16" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="1">
         <v>-0.15</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="1">
         <v>0.42</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="1">
         <v>0.51</v>
       </c>
-      <c r="AE16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF16" s="7" t="s">
+      <c r="AE16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI16" s="7" t="s">
+      <c r="AG16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AJ16" s="7" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK16" s="7" t="s">
+      <c r="AK16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL16" s="7" t="s">
+      <c r="AL16" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="7" customFormat="1" ht="31" customHeight="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:40" ht="31" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <v>49</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3574,111 +3564,111 @@
       <c r="J17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X17" s="7" t="s">
+      <c r="V17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Y17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="1">
         <v>0.27</v>
       </c>
-      <c r="AA17" s="7" t="s">
+      <c r="AA17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="1">
         <v>-0.13</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="1">
         <v>0.48</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="1">
         <v>0.62</v>
       </c>
-      <c r="AE17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AE17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AH17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL17" s="7" t="s">
+      <c r="AH17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="7" customFormat="1" ht="35" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:40" ht="35" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="1">
         <v>40</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3690,111 +3680,111 @@
       <c r="J18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X18" s="7" t="s">
+      <c r="V18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Y18" s="7" t="s">
+      <c r="Y18" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="1">
         <v>0.27</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AA18" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="1">
         <v>0.54</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="1">
         <v>0.71</v>
       </c>
-      <c r="AE18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH18" s="7" t="s">
+      <c r="AE18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AI18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ18" s="7" t="s">
+      <c r="AI18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK18" s="7" t="s">
+      <c r="AK18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL18" s="7" t="s">
+      <c r="AL18" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="7" customFormat="1" ht="39" customHeight="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:40" ht="39" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="1">
         <v>39</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3806,228 +3796,228 @@
       <c r="J19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" s="7" t="s">
+      <c r="V19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Y19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AA19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AB19" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AC19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF19" s="7" t="s">
+      <c r="AE19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AG19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH19" s="7" t="s">
+      <c r="AG19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AI19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ19" s="7" t="s">
+      <c r="AI19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK19" s="7" t="s">
+      <c r="AK19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL19" s="7" t="s">
+      <c r="AL19" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="7" customFormat="1" ht="32" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:40" ht="32" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="1">
         <v>40</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="1" t="s">
         <v>260</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" s="7" t="s">
+      <c r="V20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="Z20" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AA20" s="7" t="s">
+      <c r="AA20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AB20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="1">
         <v>0.51</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="1">
         <v>0.54</v>
       </c>
-      <c r="AE20" s="7" t="s">
+      <c r="AE20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AF20" s="7" t="s">
+      <c r="AF20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG20" s="7" t="s">
+      <c r="AG20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AH20" s="7" t="s">
+      <c r="AH20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AI20" s="7" t="s">
+      <c r="AI20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AJ20" s="7" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK20" s="7" t="s">
+      <c r="AK20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL20" s="7" t="s">
+      <c r="AL20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AN20" s="11"/>
+      <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:40" ht="33" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="1">
         <v>55</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -4039,85 +4029,85 @@
       <c r="J21" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y21" s="7" t="s">
+      <c r="V21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AA21" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="1">
         <v>-0.02</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="1">
         <v>0.67</v>
       </c>
-      <c r="AE21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF21" s="7" t="s">
+      <c r="AE21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="7" t="s">
+      <c r="AG21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
+      <c r="AH21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK21" s="7" t="s">
+      <c r="AK21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AL21" s="6" t="s">
@@ -4125,116 +4115,116 @@
       </c>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" s="7" customFormat="1" ht="47" customHeight="1">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:40" ht="47" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="1">
         <v>37</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>262</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y22" s="7" t="s">
+      <c r="V22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Z22" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AA22" s="7" t="s">
+      <c r="AA22" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AB22" s="10" t="s">
+      <c r="AB22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="4">
         <v>0.52</v>
       </c>
-      <c r="AD22" s="10">
+      <c r="AD22" s="4">
         <v>0.63</v>
       </c>
-      <c r="AE22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF22" s="7" t="s">
+      <c r="AE22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AG22" s="7" t="s">
+      <c r="AG22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ22" s="7" t="s">
+      <c r="AH22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK22" s="7" t="s">
+      <c r="AK22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AL22" s="6" t="s">
@@ -4315,19 +4305,19 @@
       <c r="X23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="Y23" s="7" t="s">
+      <c r="Y23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="Z23" s="1">
         <v>0.23</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AA23" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AB23" s="7" t="s">
+      <c r="AB23" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="1">
         <v>0.57999999999999996</v>
       </c>
       <c r="AD23" s="1">
@@ -4358,6 +4348,12 @@
         <v>278</v>
       </c>
       <c r="AN23" s="6"/>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="C26" s="1">
+        <f>SUM(C6:C23)</f>
+        <v>640</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
